--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03044233333333334</v>
+        <v>0.007630333333333334</v>
       </c>
       <c r="H2">
-        <v>0.09132700000000001</v>
+        <v>0.022891</v>
       </c>
       <c r="I2">
-        <v>0.02158314356180596</v>
+        <v>0.005544871895800688</v>
       </c>
       <c r="J2">
-        <v>0.02158314356180597</v>
+        <v>0.005544871895800688</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N2">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q2">
-        <v>0.001521162806888889</v>
+        <v>2.831362355555555E-05</v>
       </c>
       <c r="R2">
-        <v>0.013690465262</v>
+        <v>0.000254822612</v>
       </c>
       <c r="S2">
-        <v>0.0005037228696374025</v>
+        <v>9.104814152569492E-06</v>
       </c>
       <c r="T2">
-        <v>0.0005037228696374025</v>
+        <v>9.104814152569492E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03044233333333334</v>
+        <v>0.007630333333333334</v>
       </c>
       <c r="H3">
-        <v>0.09132700000000001</v>
+        <v>0.022891</v>
       </c>
       <c r="I3">
-        <v>0.02158314356180596</v>
+        <v>0.005544871895800688</v>
       </c>
       <c r="J3">
-        <v>0.02158314356180597</v>
+        <v>0.005544871895800688</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N3">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q3">
-        <v>0.06239487023355556</v>
+        <v>0.01563919732955555</v>
       </c>
       <c r="R3">
-        <v>0.5615538321020001</v>
+        <v>0.140752775966</v>
       </c>
       <c r="S3">
-        <v>0.02066164314717938</v>
+        <v>0.005029097914704209</v>
       </c>
       <c r="T3">
-        <v>0.02066164314717938</v>
+        <v>0.00502909791470421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.007630333333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.022891</v>
+      </c>
+      <c r="I4">
+        <v>0.005544871895800688</v>
+      </c>
+      <c r="J4">
+        <v>0.005544871895800688</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.03044233333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.09132700000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.02158314356180596</v>
-      </c>
-      <c r="J4">
-        <v>0.02158314356180597</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N4">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O4">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P4">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q4">
-        <v>0.001261621620333333</v>
+        <v>0.001575610421</v>
       </c>
       <c r="R4">
-        <v>0.011354594583</v>
+        <v>0.014180493789</v>
       </c>
       <c r="S4">
-        <v>0.000417777544989184</v>
+        <v>0.0005066691669439092</v>
       </c>
       <c r="T4">
-        <v>0.0004177775449891841</v>
+        <v>0.0005066691669439091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4678513333333333</v>
+        <v>0.4678513333333334</v>
       </c>
       <c r="H5">
         <v>1.403554</v>
       </c>
       <c r="I5">
-        <v>0.3316993603068863</v>
+        <v>0.3399819636031033</v>
       </c>
       <c r="J5">
-        <v>0.3316993603068863</v>
+        <v>0.3399819636031033</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N5">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O5">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P5">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q5">
-        <v>0.02337790732488889</v>
+        <v>0.001736040347555556</v>
       </c>
       <c r="R5">
-        <v>0.210401165924</v>
+        <v>0.015624363128</v>
       </c>
       <c r="S5">
-        <v>0.007741437346798371</v>
+        <v>0.0005582586310382037</v>
       </c>
       <c r="T5">
-        <v>0.007741437346798372</v>
+        <v>0.0005582586310382037</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4678513333333333</v>
+        <v>0.4678513333333334</v>
       </c>
       <c r="H6">
         <v>1.403554</v>
       </c>
       <c r="I6">
-        <v>0.3316993603068863</v>
+        <v>0.3399819636031033</v>
       </c>
       <c r="J6">
-        <v>0.3316993603068863</v>
+        <v>0.3399819636031033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N6">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O6">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P6">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q6">
-        <v>0.9589121475115556</v>
+        <v>0.9589121475115555</v>
       </c>
       <c r="R6">
-        <v>8.630209327604</v>
+        <v>8.630209327604002</v>
       </c>
       <c r="S6">
-        <v>0.3175373316302539</v>
+        <v>0.3083574546579333</v>
       </c>
       <c r="T6">
-        <v>0.317537331630254</v>
+        <v>0.3083574546579333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4678513333333333</v>
+        <v>0.4678513333333334</v>
       </c>
       <c r="H7">
         <v>1.403554</v>
       </c>
       <c r="I7">
-        <v>0.3316993603068863</v>
+        <v>0.3399819636031033</v>
       </c>
       <c r="J7">
-        <v>0.3316993603068863</v>
+        <v>0.3399819636031033</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N7">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O7">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P7">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q7">
-        <v>0.01938916280733333</v>
+        <v>0.09660802537400001</v>
       </c>
       <c r="R7">
-        <v>0.174502465266</v>
+        <v>0.8694722283660001</v>
       </c>
       <c r="S7">
-        <v>0.006420591329833994</v>
+        <v>0.03106625031413182</v>
       </c>
       <c r="T7">
-        <v>0.006420591329833995</v>
+        <v>0.03106625031413182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9121743333333333</v>
+        <v>0.9006246666666667</v>
       </c>
       <c r="H8">
-        <v>2.736523</v>
+        <v>2.701874</v>
       </c>
       <c r="I8">
-        <v>0.6467174961313077</v>
+        <v>0.6544731645010959</v>
       </c>
       <c r="J8">
-        <v>0.6467174961313078</v>
+        <v>0.6544731645010959</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N8">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O8">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P8">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q8">
-        <v>0.04558013520422222</v>
+        <v>0.003341917929777778</v>
       </c>
       <c r="R8">
-        <v>0.4102212168379999</v>
+        <v>0.030077261368</v>
       </c>
       <c r="S8">
-        <v>0.01509355632385553</v>
+        <v>0.001074660811395725</v>
       </c>
       <c r="T8">
-        <v>0.01509355632385553</v>
+        <v>0.001074660811395725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9121743333333333</v>
+        <v>0.9006246666666667</v>
       </c>
       <c r="H9">
-        <v>2.736523</v>
+        <v>2.701874</v>
       </c>
       <c r="I9">
-        <v>0.6467174961313077</v>
+        <v>0.6544731645010959</v>
       </c>
       <c r="J9">
-        <v>0.6467174961313078</v>
+        <v>0.6544731645010959</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N9">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O9">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P9">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q9">
-        <v>1.869600419110889</v>
+        <v>1.845928122213778</v>
       </c>
       <c r="R9">
-        <v>16.826403771998</v>
+        <v>16.613353099924</v>
       </c>
       <c r="S9">
-        <v>0.6191056499178639</v>
+        <v>0.5935952513736192</v>
       </c>
       <c r="T9">
-        <v>0.619105649917864</v>
+        <v>0.5935952513736193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9121743333333333</v>
+        <v>0.9006246666666667</v>
       </c>
       <c r="H10">
-        <v>2.736523</v>
+        <v>2.701874</v>
       </c>
       <c r="I10">
-        <v>0.6467174961313077</v>
+        <v>0.6544731645010959</v>
       </c>
       <c r="J10">
-        <v>0.6467174961313078</v>
+        <v>0.6544731645010959</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N10">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O10">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P10">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q10">
-        <v>0.03780324089633334</v>
+        <v>0.185972689294</v>
       </c>
       <c r="R10">
-        <v>0.340229168067</v>
+        <v>1.673754203646</v>
       </c>
       <c r="S10">
-        <v>0.01251828988958837</v>
+        <v>0.05980325231608089</v>
       </c>
       <c r="T10">
-        <v>0.01251828988958837</v>
+        <v>0.05980325231608088</v>
       </c>
     </row>
   </sheetData>
